--- a/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A58C1F8-DC4F-45EA-A89C-B057831298AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView xWindow="-26460" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attr|属性对照表" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
   <si>
     <t>属性ID</t>
   </si>
@@ -80,18 +99,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>LimitState</t>
-  </si>
-  <si>
-    <t>IN:[0;1]</t>
-  </si>
-  <si>
-    <t>IN:[0;1;2;3]</t>
-  </si>
-  <si>
-    <t>ID_OR_NULL:Attr</t>
   </si>
   <si>
     <t>hpMax</t>
@@ -453,6 +460,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -463,6 +471,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,6 +482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -485,6 +495,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -495,6 +506,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,6 +525,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -523,6 +536,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -533,6 +547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -545,6 +560,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -555,6 +571,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -709,14 +726,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,6 +740,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -736,159 +748,40 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,13 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149876400036622"/>
+        <fgColor theme="0" tint="-0.1498458815271462"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,204 +808,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399639881588183"/>
+        <fgColor theme="3" tint="0.39960936307870726"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1141,358 +842,66 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1779,19 +1188,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -1806,235 +1216,241 @@
     <col min="12" max="12" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>52</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
+        <f>B4&amp;"="&amp;A4&amp;","</f>
+        <v>hpMax=1,</v>
+      </c>
+      <c r="L4" t="str">
+        <f>"//"&amp;C4</f>
+        <v>//生命</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>53</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K36" si="0">B5&amp;"="&amp;A5&amp;","</f>
+        <v>atk=2,</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L36" si="1">"//"&amp;C5</f>
+        <v>//攻击</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>52</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="str">
-        <f>B5&amp;"="&amp;A5&amp;","</f>
-        <v>hpMax=1,</v>
-      </c>
-      <c r="L5" t="str">
-        <f>"//"&amp;C5</f>
-        <v>//生命</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>54</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>def=3,</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>//防御</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>53</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" ref="K6:K37" si="0">B6&amp;"="&amp;A6&amp;","</f>
-        <v>atk=2,</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" ref="L6:L37" si="1">"//"&amp;C6</f>
-        <v>//攻击</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>54</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>def=3,</v>
+        <v>atkPhy=4,</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>//防御</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>//物理攻击</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2047,22 +1463,22 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>atkPhy=4,</v>
+        <v>defPhy=5,</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>//物理攻击</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>//物理防御</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2075,22 +1491,22 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>defPhy=5,</v>
+        <v>atkMag=6,</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>//物理防御</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>//魔法攻击</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2103,25 +1519,25 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>atkMag=6,</v>
+        <v>defMag=7,</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>//魔法攻击</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>//魔法防御</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2131,22 +1547,22 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>defMag=7,</v>
+        <v>ignoreDefRate=8,</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>//魔法防御</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>//无视防御</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2159,22 +1575,22 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>ignoreDefRate=8,</v>
+        <v>ignoreDefPhyRate=9,</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>//无视防御</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>//无视物理防御</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2187,25 +1603,25 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>ignoreDefPhyRate=9,</v>
+        <v>ignoreDefMagRate=10,</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>//无视物理防御</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>//无视魔法防御</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2215,22 +1631,22 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>ignoreDefMagRate=10,</v>
+        <v>damageAdd=11,</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>//无视魔法防御</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>//最终伤害提升</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2243,25 +1659,25 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>damageAdd=11,</v>
+        <v>antiDamageAdd=12,</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>//最终伤害提升</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>//最终伤害减免</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2271,22 +1687,22 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>antiDamageAdd=12,</v>
+        <v>damageAddRate=13,</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>//最终伤害减免</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>//最终伤害提升百分比</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2299,22 +1715,22 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>damageAddRate=13,</v>
+        <v>antiDamageAddRate=14,</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>//最终伤害提升百分比</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>//最终伤害减免减免</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2327,22 +1743,22 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>antiDamageAddRate=14,</v>
+        <v>normalDamageAddRate=15,</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>//最终伤害减免减免</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>//普攻伤害提升</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2355,50 +1771,50 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>normalDamageAddRate=15,</v>
+        <v>antiNormalDamageAddRate=16,</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>//普攻伤害提升</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>//普攻伤害减免</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>antiNormalDamageAddRate=16,</v>
+        <v>ultiDamageAddRate=17,</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>//普攻伤害减免</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>//终极技能伤害提升</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>59</v>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2411,277 +1827,277 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>ultiDamageAddRate=17,</v>
+        <v>antiUltiDamageAddRate=18,</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v>//终极技能伤害提升</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>//终极技能伤害减免</v>
+      </c>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
       <c r="F22">
-        <v>-1000</v>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
-        <v>antiUltiDamageAddRate=18,</v>
+        <v>crit=19,</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v>//终极技能伤害减免</v>
-      </c>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:12">
+        <v>//暴击率</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>1000</v>
-      </c>
       <c r="F23">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
-        <v>crit=19,</v>
+        <v>tough=20,</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>//暴击率</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>//抗暴率</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24">
+        <v>2000</v>
+      </c>
       <c r="F24">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
-      <c r="I24" t="s">
-        <v>66</v>
-      </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>tough=20,</v>
+        <v>critDamage=21,</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>//抗暴率</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>//暴击伤害</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>2000</v>
-      </c>
       <c r="F25">
         <v>0</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
-        <v>critDamage=21,</v>
+        <v>parry=22,</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>//暴击伤害</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>//格挡率</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>-1000</v>
+      </c>
+      <c r="I26" t="s">
         <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
-        <v>parry=22,</v>
+        <v>through=23,</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v>//格挡率</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>//穿透率</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
         <v>71</v>
       </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>800</v>
+      </c>
       <c r="F27">
-        <v>-1000</v>
-      </c>
-      <c r="I27" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
-        <v>through=23,</v>
+        <v>parryDamage=24,</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
-        <v>//穿透率</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>//格挡效果</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
-        <v>800</v>
-      </c>
       <c r="F28">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
-        <v>parryDamage=24,</v>
+        <v>hit=25,</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v>//格挡效果</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>//命中</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
       <c r="F29">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
-        <v>hit=25,</v>
+        <v>dodge=26,</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="1"/>
-        <v>//命中</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>//闪避</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2691,146 +2107,155 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
-        <v>dodge=26,</v>
+        <v>skillHeal=27,</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="1"/>
-        <v>//闪避</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>//治疗效果固定值</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>-1000</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
-        <v>skillHeal=27,</v>
+        <v>skillHealRate=28,</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="1"/>
-        <v>//治疗效果固定值</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>//治疗效果</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
         <v>82</v>
       </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>-1000</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="I32" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
-        <v>skillHealRate=28,</v>
+        <v>heal=29,</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="1"/>
-        <v>//治疗效果</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>//恢复效果固定值</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>-1000</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
         <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
-        <v>heal=29,</v>
+        <v>healRate=30,</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="1"/>
-        <v>//恢复效果固定值</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>//恢复效果</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
         <v>87</v>
       </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
       <c r="D34">
         <v>1</v>
       </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
       <c r="F34">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
-        <v>healRate=30,</v>
+        <v>hpSuck=31,</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="1"/>
-        <v>//恢复效果</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>//吸血率</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
         <v>90</v>
-      </c>
-      <c r="C35" t="s">
-        <v>91</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2845,66 +2270,60 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
-        <v>hpSuck=31,</v>
+        <v>thorns=32,</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="1"/>
-        <v>//吸血率</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>//反伤率</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="C36" t="s">
-        <v>94</v>
-      </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36">
-        <v>1000</v>
-      </c>
       <c r="F36">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
-      <c r="I36" t="s">
-        <v>95</v>
-      </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
-        <v>thorns=32,</v>
+        <v>damageRate=33,</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="1"/>
-        <v>//反伤率</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>//伤害率</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2919,54 +2338,51 @@
         <v>0</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="0"/>
-        <v>damageRate=33,</v>
+        <f t="shared" ref="K37:K57" si="2">B37&amp;"="&amp;A37&amp;","</f>
+        <v>antiDamageRate=34,</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="1"/>
-        <v>//伤害率</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <f t="shared" ref="L37:L57" si="3">"//"&amp;C37</f>
+        <v>//免伤率</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="2"/>
+        <v>rageAct=35,</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="3"/>
+        <v>//个人回合行动前回怒</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
         <v>98</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>-1000</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" ref="K38:K58" si="2">B38&amp;"="&amp;A38&amp;","</f>
-        <v>antiDamageRate=34,</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" ref="L38:L58" si="3">"//"&amp;C38</f>
-        <v>//免伤率</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2979,22 +2395,22 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
-        <v>rageAct=35,</v>
+        <v>rageStart=36,</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="3"/>
-        <v>//个人回合行动前回怒</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>//战斗波次获得怒气</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3007,22 +2423,22 @@
       </c>
       <c r="K40" t="str">
         <f t="shared" si="2"/>
-        <v>rageStart=36,</v>
+        <v>rageHit=37,</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="3"/>
-        <v>//战斗波次获得怒气</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>//受普攻攻击回怒</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3035,137 +2451,137 @@
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
-        <v>rageHit=37,</v>
+        <v>rageKill=38,</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="3"/>
-        <v>//受普攻攻击回怒</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+        <v>//自己击杀敌方单体回怒</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="2"/>
-        <v>rageKill=38,</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="3"/>
-        <v>//自己击杀敌方单体回怒</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="1:12">
-      <c r="A43" s="2">
-        <v>39</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2" t="str">
+      <c r="K42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>rageMax=39,</v>
       </c>
-      <c r="L43" s="2" t="str">
+      <c r="L42" s="1" t="str">
         <f t="shared" si="3"/>
         <v>//怪物怒气上限</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="2"/>
+        <v>speed=40,</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="3"/>
+        <v>//先手</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>40</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>111</v>
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="2"/>
-        <v>speed=40,</v>
+        <v>hpMaxAllrate=41,</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="3"/>
-        <v>//先手</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>//生命百分比（战斗）</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="2"/>
-        <v>hpMaxAllrate=41,</v>
+        <v>atkAllrate=42,</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="3"/>
-        <v>//生命百分比（战斗）</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>//攻击百分比（战斗）</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3178,22 +2594,22 @@
       </c>
       <c r="K46" t="str">
         <f t="shared" si="2"/>
-        <v>atkAllrate=42,</v>
+        <v>defAllrate=43,</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="3"/>
-        <v>//攻击百分比（战斗）</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>//防御百分比（战斗）</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3206,22 +2622,22 @@
       </c>
       <c r="K47" t="str">
         <f t="shared" si="2"/>
-        <v>defAllrate=43,</v>
+        <v>atkPhyAllrate=44,</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="3"/>
-        <v>//防御百分比（战斗）</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>//物理攻击力百分比</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3234,22 +2650,22 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="2"/>
-        <v>atkPhyAllrate=44,</v>
+        <v>defPhyAllrate=45,</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="3"/>
-        <v>//物理攻击力百分比</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>//物理防御力百分比</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>45</v>
-      </c>
-      <c r="B49" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" t="s">
-        <v>121</v>
+        <v>46</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3262,22 +2678,22 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="2"/>
-        <v>defPhyAllrate=45,</v>
+        <v>atkMagAllrate=46,</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="3"/>
-        <v>//物理防御力百分比</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>//魔法攻击力百分比</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>46</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>123</v>
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3290,50 +2706,50 @@
       </c>
       <c r="K50" t="str">
         <f t="shared" si="2"/>
-        <v>atkMagAllrate=46,</v>
+        <v>defMagAllrate=47,</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="3"/>
-        <v>//魔法攻击力百分比</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>//魔法防御力百分比</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
-        <v>defMagAllrate=47,</v>
+        <v>frontDamageRate=48,</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="3"/>
-        <v>//魔法防御力百分比</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>//对位伤害提升</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3346,22 +2762,22 @@
       </c>
       <c r="K52" t="str">
         <f t="shared" si="2"/>
-        <v>frontDamageRate=48,</v>
+        <v>frontAntiDamageRate=49,</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="3"/>
-        <v>//对位伤害提升</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>//对位伤害减免</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3374,22 +2790,22 @@
       </c>
       <c r="K53" t="str">
         <f t="shared" si="2"/>
-        <v>frontAntiDamageRate=49,</v>
+        <v>diagonalDamageRate=50,</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="3"/>
-        <v>//对位伤害减免</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>//非对位伤害提升</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3402,50 +2818,53 @@
       </c>
       <c r="K54" t="str">
         <f t="shared" si="2"/>
-        <v>diagonalDamageRate=50,</v>
+        <v>diagonalAntiDamageRate=51,</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="3"/>
-        <v>//非对位伤害提升</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>//非对位伤害减免</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
-        <v>diagonalAntiDamageRate=51,</v>
+        <v>hpMaxRate_develop=52,</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="3"/>
-        <v>//非对位伤害减免</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>//生命</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3461,22 +2880,22 @@
       </c>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
-        <v>hpMaxRate_develop=52,</v>
+        <v>atkRate_develop=53,</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="3"/>
-        <v>//生命</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>//攻击</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3492,84 +2911,79 @@
       </c>
       <c r="K57" t="str">
         <f t="shared" si="2"/>
-        <v>atkRate_develop=53,</v>
+        <v>defRate_develop=54,</v>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="3"/>
-        <v>//攻击</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>//防御</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1000000</v>
+      </c>
+      <c r="F58">
+        <v>-1000000</v>
+      </c>
+      <c r="I58" t="s">
+        <v>135</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
         <v>136</v>
       </c>
-      <c r="C58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" t="str">
-        <f t="shared" si="2"/>
-        <v>defRate_develop=54,</v>
-      </c>
-      <c r="L58" t="str">
-        <f t="shared" si="3"/>
-        <v>//防御</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="L58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>55</v>
-      </c>
-      <c r="B59" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>138</v>
       </c>
+      <c r="C59" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>-1000000</v>
-      </c>
-      <c r="I59" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>56</v>
-      </c>
-      <c r="B60" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>143</v>
       </c>
       <c r="D60">
@@ -3581,21 +2995,21 @@
       <c r="J60">
         <v>0</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>57</v>
-      </c>
-      <c r="B61" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D61">
@@ -3607,21 +3021,21 @@
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>58</v>
-      </c>
-      <c r="B62" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>151</v>
       </c>
       <c r="D62">
@@ -3633,149 +3047,146 @@
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>59</v>
-      </c>
-      <c r="B63" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" t="s">
         <v>155</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
       <c r="J63">
         <v>0</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>60</v>
-      </c>
-      <c r="B64" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64" s="10" t="s">
+      <c r="L64" t="str">
+        <f t="shared" ref="L64:L66" si="4">"//"&amp;C64</f>
+        <v>//怪物怒气上限</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="L64" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65">
-        <v>61</v>
-      </c>
-      <c r="B65" s="10" t="s">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" s="10" t="s">
+      <c r="L65" t="str">
+        <f t="shared" si="4"/>
+        <v>//怪物个人回合回怒</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="L65" t="str">
-        <f t="shared" ref="L65:L67" si="4">"//"&amp;C65</f>
-        <v>//怪物怒气上限</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66">
-        <v>62</v>
-      </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="4"/>
-        <v>//怪物个人回合回怒</v>
-      </c>
-    </row>
-    <row r="67" ht="15" customHeight="1" spans="1:12">
+        <v>//怪物初始怒气</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>63</v>
-      </c>
-      <c r="B67" s="12" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>2002</v>
+      </c>
+      <c r="B68" t="s">
         <v>168</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" s="10" t="s">
+      <c r="C68" t="s">
         <v>169</v>
-      </c>
-      <c r="L67" t="str">
-        <f t="shared" si="4"/>
-        <v>//怪物初始怒气</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68">
-        <v>2001</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3790,15 +3201,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3813,118 +3224,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>2005</v>
+      </c>
+      <c r="B71" t="s">
         <v>174</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>175</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>2006</v>
+      </c>
+      <c r="B72" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>2007</v>
+      </c>
+      <c r="B73" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>3001</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
         <v>3</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71">
-        <v>2004</v>
-      </c>
-      <c r="B71" t="s">
-        <v>176</v>
-      </c>
-      <c r="C71" t="s">
-        <v>177</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72">
-        <v>2005</v>
-      </c>
-      <c r="B72" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72" t="s">
-        <v>179</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73">
-        <v>2006</v>
-      </c>
-      <c r="B73" t="s">
-        <v>180</v>
-      </c>
-      <c r="C73" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74">
-        <v>2007</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>3002</v>
+      </c>
+      <c r="B75" t="s">
         <v>182</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>183</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75">
-        <v>3001</v>
-      </c>
-      <c r="B75" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75" t="s">
-        <v>185</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3939,15 +3350,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3962,79 +3373,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="B77" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>3005</v>
+      </c>
+      <c r="B78" t="s">
         <v>188</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>189</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>3</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78">
-        <v>3004</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>3006</v>
+      </c>
+      <c r="B79" t="s">
         <v>190</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>191</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79">
-        <v>3005</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>3007</v>
+      </c>
+      <c r="B80" t="s">
         <v>192</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>193</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80">
-        <v>3006</v>
-      </c>
-      <c r="B80" t="s">
-        <v>194</v>
-      </c>
-      <c r="C80" t="s">
-        <v>195</v>
-      </c>
       <c r="D80">
         <v>1</v>
       </c>
@@ -4045,29 +3453,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
-      <c r="A81">
-        <v>3007</v>
-      </c>
-      <c r="B81" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81" t="s">
-        <v>197</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A58C1F8-DC4F-45EA-A89C-B057831298AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1649D9E-20E0-4269-B321-7F21F955B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26460" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attr|属性对照表" sheetId="3" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1649D9E-20E0-4269-B321-7F21F955B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A606DDCE-A24F-457A-8953-88051D630DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attr|属性对照表" sheetId="3" r:id="rId1"/>
@@ -727,7 +727,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,14 +756,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -847,14 +839,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,13 +871,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1198,7 +1193,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1207,8 +1202,7 @@
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="5" max="7" width="8.375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="8.375" customWidth="1"/>
     <col min="10" max="10" width="25.5" customWidth="1"/>
@@ -2353,7 +2347,7 @@
       <c r="B38" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D38">
@@ -2381,7 +2375,7 @@
       <c r="B39" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D39">
@@ -2409,7 +2403,7 @@
       <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D40">
@@ -2437,7 +2431,7 @@
       <c r="B41" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>103</v>
       </c>
       <c r="D41">
@@ -2462,7 +2456,7 @@
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2490,10 +2484,10 @@
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D43">
@@ -2661,10 +2655,10 @@
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D49">
@@ -3132,7 +3126,7 @@
       <c r="A66">
         <v>63</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="11" t="s">
         <v>163</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -3159,10 +3153,10 @@
       <c r="A67">
         <v>2001</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>167</v>
       </c>
       <c r="D67">
@@ -3454,7 +3448,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A606DDCE-A24F-457A-8953-88051D630DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Attr|属性对照表" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="198">
   <si>
     <t>属性ID</t>
   </si>
@@ -99,6 +80,18 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>IN:[0;1]</t>
+  </si>
+  <si>
+    <t>IN:[0;1;2;3]</t>
+  </si>
+  <si>
+    <t>ID_OR_NULL:Attr</t>
   </si>
   <si>
     <t>hpMax</t>
@@ -460,7 +453,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -471,7 +463,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -482,7 +473,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -495,7 +485,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -506,7 +495,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -525,7 +513,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -536,7 +523,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -547,7 +533,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -560,7 +545,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -571,7 +555,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -726,8 +709,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,7 +729,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -748,32 +736,159 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,7 +897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498458815271462"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149845881527146"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,18 +921,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39960936307870726"/>
+        <fgColor theme="3" tint="0.399609363078707"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -834,69 +1147,358 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1183,20 +1785,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -1210,1977 +1811,1982 @@
     <col min="12" max="12" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>52</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="str">
-        <f>B4&amp;"="&amp;A4&amp;","</f>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <f>B5&amp;"="&amp;A5&amp;","</f>
         <v>hpMax=1,</v>
       </c>
-      <c r="L4" t="str">
-        <f>"//"&amp;C4</f>
+      <c r="L5" t="str">
+        <f>"//"&amp;C5</f>
         <v>//生命</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="6" spans="1:12">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>53</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" ref="K5:K36" si="0">B5&amp;"="&amp;A5&amp;","</f>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" ref="K6:K37" si="0">B6&amp;"="&amp;A6&amp;","</f>
         <v>atk=2,</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" ref="L5:L36" si="1">"//"&amp;C5</f>
+      <c r="L6" t="str">
+        <f t="shared" ref="L6:L37" si="1">"//"&amp;C6</f>
         <v>//攻击</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="7" spans="1:12">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>54</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="str">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>def=3,</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="1"/>
         <v>//防御</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="8" spans="1:12">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="str">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>atkPhy=4,</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="1"/>
         <v>//物理攻击</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="9" spans="1:12">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="str">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>defPhy=5,</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="1"/>
         <v>//物理防御</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="10" spans="1:12">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="str">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="0"/>
         <v>atkMag=6,</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="1"/>
         <v>//魔法攻击</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="11" spans="1:12">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="str">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v>defMag=7,</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="1"/>
         <v>//魔法防御</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="12" spans="1:12">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="str">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>ignoreDefRate=8,</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="1"/>
         <v>//无视防御</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="13" spans="1:12">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="str">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>ignoreDefPhyRate=9,</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="1"/>
         <v>//无视物理防御</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="14" spans="1:12">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="str">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>ignoreDefMagRate=10,</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="1"/>
         <v>//无视魔法防御</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="15" spans="1:12">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="str">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>damageAdd=11,</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="1"/>
         <v>//最终伤害提升</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="16" spans="1:12">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="str">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>antiDamageAdd=12,</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="1"/>
         <v>//最终伤害减免</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="str">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>damageAddRate=13,</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="1"/>
         <v>//最终伤害提升百分比</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="str">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>antiDamageAddRate=14,</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="1"/>
         <v>//最终伤害减免减免</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="str">
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>normalDamageAddRate=15,</v>
       </c>
-      <c r="L18" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="1"/>
         <v>//普攻伤害提升</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="20" spans="1:12">
+      <c r="A20">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="str">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>antiNormalDamageAddRate=16,</v>
       </c>
-      <c r="L19" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="1"/>
         <v>//普攻伤害减免</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="21" spans="1:12">
+      <c r="A21">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="B21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>-1000</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="str">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>ultiDamageAddRate=17,</v>
       </c>
-      <c r="L20" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="1"/>
         <v>//终极技能伤害提升</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="22" spans="1:17">
+      <c r="A22">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>-1000</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="str">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>antiUltiDamageAddRate=18,</v>
       </c>
-      <c r="L21" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="1"/>
         <v>//终极技能伤害减免</v>
       </c>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>1000</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>2</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="str">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>crit=19,</v>
       </c>
-      <c r="L22" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="1"/>
         <v>//暴击率</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="24" spans="1:12">
+      <c r="A24">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>-1000</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>2</v>
       </c>
-      <c r="I23" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="str">
+      <c r="I24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>tough=20,</v>
       </c>
-      <c r="L23" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="1"/>
         <v>//抗暴率</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="25" spans="1:12">
+      <c r="A25">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>2000</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>2</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="str">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>critDamage=21,</v>
       </c>
-      <c r="L24" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="1"/>
         <v>//暴击伤害</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="26" spans="1:12">
+      <c r="A26">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="str">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>parry=22,</v>
       </c>
-      <c r="L25" t="str">
+      <c r="L26" t="str">
         <f t="shared" si="1"/>
         <v>//格挡率</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="27" spans="1:12">
+      <c r="A27">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>-1000</v>
       </c>
-      <c r="I26" t="s">
-        <v>69</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="str">
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>through=23,</v>
       </c>
-      <c r="L26" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="1"/>
         <v>//穿透率</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="28" spans="1:12">
+      <c r="A28">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>800</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27" t="str">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>parryDamage=24,</v>
       </c>
-      <c r="L27" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="1"/>
         <v>//格挡效果</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="29" spans="1:12">
+      <c r="A29">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="F28">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>-1000</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28" t="str">
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>hit=25,</v>
       </c>
-      <c r="L28" t="str">
+      <c r="L29" t="str">
         <f t="shared" si="1"/>
         <v>//命中</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="30" spans="1:12">
+      <c r="A30">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>1000</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="str">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>dodge=26,</v>
       </c>
-      <c r="L29" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="1"/>
         <v>//闪避</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="31" spans="1:12">
+      <c r="A31">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30" t="str">
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>skillHeal=27,</v>
       </c>
-      <c r="L30" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="1"/>
         <v>//治疗效果固定值</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="32" spans="1:12">
+      <c r="A32">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="F31">
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>-1000</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>2</v>
       </c>
-      <c r="I31" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="str">
+      <c r="I32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>skillHealRate=28,</v>
       </c>
-      <c r="L31" t="str">
+      <c r="L32" t="str">
         <f t="shared" si="1"/>
         <v>//治疗效果</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="33" spans="1:12">
+      <c r="A33">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" t="str">
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>heal=29,</v>
       </c>
-      <c r="L32" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="1"/>
         <v>//恢复效果固定值</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="34" spans="1:12">
+      <c r="A34">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="F33">
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>-1000</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>2</v>
       </c>
-      <c r="I33" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="str">
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>healRate=30,</v>
       </c>
-      <c r="L33" t="str">
+      <c r="L34" t="str">
         <f t="shared" si="1"/>
         <v>//恢复效果</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="35" spans="1:12">
+      <c r="A35">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>1000</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>2</v>
       </c>
-      <c r="I34" t="s">
-        <v>88</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="str">
+      <c r="I35" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>hpSuck=31,</v>
       </c>
-      <c r="L34" t="str">
+      <c r="L35" t="str">
         <f t="shared" si="1"/>
         <v>//吸血率</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="36" spans="1:12">
+      <c r="A36">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>1000</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>2</v>
       </c>
-      <c r="I35" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="str">
+      <c r="I36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>thorns=32,</v>
       </c>
-      <c r="L35" t="str">
+      <c r="L36" t="str">
         <f t="shared" si="1"/>
         <v>//反伤率</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="37" spans="1:12">
+      <c r="A37">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="F36">
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>-1000</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>2</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" t="str">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>damageRate=33,</v>
       </c>
-      <c r="L36" t="str">
+      <c r="L37" t="str">
         <f t="shared" si="1"/>
         <v>//伤害率</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="38" spans="1:12">
+      <c r="A38">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="F37">
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <v>-1000</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>2</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" ref="K37:K57" si="2">B37&amp;"="&amp;A37&amp;","</f>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" ref="K38:K58" si="2">B38&amp;"="&amp;A38&amp;","</f>
         <v>antiDamageRate=34,</v>
       </c>
-      <c r="L37" t="str">
-        <f t="shared" ref="L37:L57" si="3">"//"&amp;C37</f>
+      <c r="L38" t="str">
+        <f t="shared" ref="L38:L58" si="3">"//"&amp;C38</f>
         <v>//免伤率</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="39" spans="1:12">
+      <c r="A39">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="str">
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="str">
         <f t="shared" si="2"/>
         <v>rageAct=35,</v>
       </c>
-      <c r="L38" t="str">
+      <c r="L39" t="str">
         <f t="shared" si="3"/>
         <v>//个人回合行动前回怒</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="40" spans="1:12">
+      <c r="A40">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" t="str">
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="str">
         <f t="shared" si="2"/>
         <v>rageStart=36,</v>
       </c>
-      <c r="L39" t="str">
+      <c r="L40" t="str">
         <f t="shared" si="3"/>
         <v>//战斗波次获得怒气</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="41" spans="1:12">
+      <c r="A41">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" t="str">
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="str">
         <f t="shared" si="2"/>
         <v>rageHit=37,</v>
       </c>
-      <c r="L40" t="str">
+      <c r="L41" t="str">
         <f t="shared" si="3"/>
         <v>//受普攻攻击回怒</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="42" spans="1:12">
+      <c r="A42">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="str">
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="str">
         <f t="shared" si="2"/>
         <v>rageKill=38,</v>
       </c>
-      <c r="L41" t="str">
+      <c r="L42" t="str">
         <f t="shared" si="3"/>
         <v>//自己击杀敌方单体回怒</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
+    <row r="43" s="2" customFormat="1" spans="1:12">
+      <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1" t="str">
+      <c r="B43" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="str">
         <f t="shared" si="2"/>
         <v>rageMax=39,</v>
       </c>
-      <c r="L42" s="1" t="str">
+      <c r="L43" s="2" t="str">
         <f t="shared" si="3"/>
         <v>//怪物怒气上限</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43">
+    <row r="44" spans="1:12">
+      <c r="A44">
         <v>40</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" t="str">
+      <c r="B44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="str">
         <f t="shared" si="2"/>
         <v>speed=40,</v>
       </c>
-      <c r="L43" t="str">
+      <c r="L44" t="str">
         <f t="shared" si="3"/>
         <v>//先手</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44">
+    <row r="45" spans="1:12">
+      <c r="A45">
         <v>41</v>
       </c>
-      <c r="B44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="str">
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="str">
         <f t="shared" si="2"/>
         <v>hpMaxAllrate=41,</v>
       </c>
-      <c r="L44" t="str">
+      <c r="L45" t="str">
         <f t="shared" si="3"/>
         <v>//生命百分比（战斗）</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45">
+    <row r="46" spans="1:12">
+      <c r="A46">
         <v>42</v>
       </c>
-      <c r="B45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="F45">
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>-1000</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45" t="str">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="str">
         <f t="shared" si="2"/>
         <v>atkAllrate=42,</v>
       </c>
-      <c r="L45" t="str">
+      <c r="L46" t="str">
         <f t="shared" si="3"/>
         <v>//攻击百分比（战斗）</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46">
+    <row r="47" spans="1:12">
+      <c r="A47">
         <v>43</v>
       </c>
-      <c r="B46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="F46">
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>-1000</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" t="str">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="str">
         <f t="shared" si="2"/>
         <v>defAllrate=43,</v>
       </c>
-      <c r="L46" t="str">
+      <c r="L47" t="str">
         <f t="shared" si="3"/>
         <v>//防御百分比（战斗）</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47">
+    <row r="48" spans="1:12">
+      <c r="A48">
         <v>44</v>
       </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="F47">
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48">
         <v>-1000</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" t="str">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="str">
         <f t="shared" si="2"/>
         <v>atkPhyAllrate=44,</v>
       </c>
-      <c r="L47" t="str">
+      <c r="L48" t="str">
         <f t="shared" si="3"/>
         <v>//物理攻击力百分比</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48">
+    <row r="49" spans="1:12">
+      <c r="A49">
         <v>45</v>
       </c>
-      <c r="B48" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="F48">
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>-1000</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="str">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="str">
         <f t="shared" si="2"/>
         <v>defPhyAllrate=45,</v>
       </c>
-      <c r="L48" t="str">
+      <c r="L49" t="str">
         <f t="shared" si="3"/>
         <v>//物理防御力百分比</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A49">
+    <row r="50" spans="1:12">
+      <c r="A50">
         <v>46</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="F49">
+      <c r="B50" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50">
         <v>-1000</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="str">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="str">
         <f t="shared" si="2"/>
         <v>atkMagAllrate=46,</v>
       </c>
-      <c r="L49" t="str">
+      <c r="L50" t="str">
         <f t="shared" si="3"/>
         <v>//魔法攻击力百分比</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50">
+    <row r="51" spans="1:12">
+      <c r="A51">
         <v>47</v>
       </c>
-      <c r="B50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="F50">
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>-1000</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50" t="str">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="str">
         <f t="shared" si="2"/>
         <v>defMagAllrate=47,</v>
       </c>
-      <c r="L50" t="str">
+      <c r="L51" t="str">
         <f t="shared" si="3"/>
         <v>//魔法防御力百分比</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51">
+    <row r="52" spans="1:12">
+      <c r="A52">
         <v>48</v>
       </c>
-      <c r="B51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" t="str">
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="str">
         <f t="shared" si="2"/>
         <v>frontDamageRate=48,</v>
       </c>
-      <c r="L51" t="str">
+      <c r="L52" t="str">
         <f t="shared" si="3"/>
         <v>//对位伤害提升</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52">
+    <row r="53" spans="1:12">
+      <c r="A53">
         <v>49</v>
       </c>
-      <c r="B52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="str">
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="str">
         <f t="shared" si="2"/>
         <v>frontAntiDamageRate=49,</v>
       </c>
-      <c r="L52" t="str">
+      <c r="L53" t="str">
         <f t="shared" si="3"/>
         <v>//对位伤害减免</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53">
+    <row r="54" spans="1:12">
+      <c r="A54">
         <v>50</v>
       </c>
-      <c r="B53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" t="str">
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="str">
         <f t="shared" si="2"/>
         <v>diagonalDamageRate=50,</v>
       </c>
-      <c r="L53" t="str">
+      <c r="L54" t="str">
         <f t="shared" si="3"/>
         <v>//非对位伤害提升</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A54">
+    <row r="55" spans="1:12">
+      <c r="A55">
         <v>51</v>
       </c>
-      <c r="B54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" t="str">
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="str">
         <f t="shared" si="2"/>
         <v>diagonalAntiDamageRate=51,</v>
       </c>
-      <c r="L54" t="str">
+      <c r="L55" t="str">
         <f t="shared" si="3"/>
         <v>//非对位伤害减免</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55">
+    <row r="56" spans="1:12">
+      <c r="A56">
         <v>52</v>
       </c>
-      <c r="B55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>3</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="str">
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="str">
         <f t="shared" si="2"/>
         <v>hpMaxRate_develop=52,</v>
       </c>
-      <c r="L55" t="str">
+      <c r="L56" t="str">
         <f t="shared" si="3"/>
         <v>//生命</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56">
+    <row r="57" spans="1:12">
+      <c r="A57">
         <v>53</v>
       </c>
-      <c r="B56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>3</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56" t="str">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="str">
         <f t="shared" si="2"/>
         <v>atkRate_develop=53,</v>
       </c>
-      <c r="L56" t="str">
+      <c r="L57" t="str">
         <f t="shared" si="3"/>
         <v>//攻击</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57">
+    <row r="58" spans="1:12">
+      <c r="A58">
         <v>54</v>
       </c>
-      <c r="B57" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>3</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" t="str">
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="str">
         <f t="shared" si="2"/>
         <v>defRate_develop=54,</v>
       </c>
-      <c r="L57" t="str">
+      <c r="L58" t="str">
         <f t="shared" si="3"/>
         <v>//防御</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58">
+    <row r="59" spans="1:12">
+      <c r="A59">
         <v>55</v>
       </c>
-      <c r="B58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
         <v>1000000</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>-1000000</v>
       </c>
-      <c r="I58" t="s">
-        <v>135</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" t="s">
-        <v>136</v>
-      </c>
-      <c r="L58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59">
+      <c r="I59" t="s">
+        <v>139</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>140</v>
+      </c>
+      <c r="L59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
         <v>56</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60">
+      <c r="B60" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
         <v>57</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61">
+      <c r="B61" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
         <v>58</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62">
+      <c r="B62" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
         <v>59</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63">
+      <c r="B63" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
         <v>60</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" t="s">
-        <v>155</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64">
+      <c r="B64" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
         <v>61</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L64" t="str">
-        <f t="shared" ref="L64:L66" si="4">"//"&amp;C64</f>
+      <c r="B65" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" ref="L65:L67" si="4">"//"&amp;C65</f>
         <v>//怪物怒气上限</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65">
+    <row r="66" spans="1:12">
+      <c r="A66">
         <v>62</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L65" t="str">
+      <c r="B66" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L66" t="str">
         <f t="shared" si="4"/>
         <v>//怪物个人回合回怒</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66">
+    <row r="67" ht="15" customHeight="1" spans="1:12">
+      <c r="A67">
         <v>63</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="L66" t="str">
+      <c r="B67" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="L67" t="str">
         <f t="shared" si="4"/>
         <v>//怪物初始怒气</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67">
+    <row r="68" spans="1:10">
+      <c r="A68">
         <v>2001</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>3</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>2002</v>
-      </c>
-      <c r="B68" t="s">
-        <v>168</v>
-      </c>
-      <c r="C68" t="s">
-        <v>169</v>
+      <c r="B68" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3195,15 +3801,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10">
       <c r="A69">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3218,118 +3824,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10">
       <c r="A70">
+        <v>2003</v>
+      </c>
+      <c r="B70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
         <v>2004</v>
       </c>
-      <c r="B70" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" t="s">
-        <v>173</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71">
+      <c r="B71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
         <v>2005</v>
       </c>
-      <c r="B71" t="s">
-        <v>174</v>
-      </c>
-      <c r="C71" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72">
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
         <v>2006</v>
       </c>
-      <c r="B72" t="s">
-        <v>176</v>
-      </c>
-      <c r="C72" t="s">
-        <v>177</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73">
+      <c r="B73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
         <v>2007</v>
       </c>
-      <c r="B73" t="s">
-        <v>178</v>
-      </c>
-      <c r="C73" t="s">
-        <v>179</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74">
+      <c r="B74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
         <v>3001</v>
       </c>
-      <c r="B74" t="s">
-        <v>180</v>
-      </c>
-      <c r="C74" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>3</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>3002</v>
-      </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3344,15 +3950,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10">
       <c r="A76">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3367,89 +3973,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10">
       <c r="A77">
+        <v>3003</v>
+      </c>
+      <c r="B77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
         <v>3004</v>
       </c>
-      <c r="B77" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" t="s">
-        <v>187</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A78">
+      <c r="B78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
         <v>3005</v>
       </c>
-      <c r="B78" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" t="s">
-        <v>189</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A79">
+      <c r="B79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" t="s">
+        <v>193</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
         <v>3006</v>
       </c>
-      <c r="B79" t="s">
-        <v>190</v>
-      </c>
-      <c r="C79" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A80">
+      <c r="B80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
         <v>3007</v>
       </c>
-      <c r="B80" t="s">
-        <v>192</v>
-      </c>
-      <c r="C80" t="s">
-        <v>193</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="J80">
+      <c r="B81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="J81">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C6C0FB-FB53-4244-93E1-06AFA9E84945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView xWindow="-24630" yWindow="780" windowWidth="15150" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attr|属性对照表" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -89,9 +108,6 @@
   </si>
   <si>
     <t>IN:[0;1;2;3]</t>
-  </si>
-  <si>
-    <t>ID_OR_NULL:Attr</t>
   </si>
   <si>
     <t>hpMax</t>
@@ -705,18 +721,16 @@
   <si>
     <t>装备魔法防御力百分比</t>
   </si>
+  <si>
+    <t>ID:Attr$Null</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,148 +761,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,7 +795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149845881527146"/>
+        <fgColor theme="0" tint="-0.14981536301767021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,13 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399609363078707"/>
+        <fgColor theme="3" tint="0.39957884456923126"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,194 +829,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1147,261 +853,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,22 +875,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
@@ -1441,64 +905,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1785,19 +1208,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -1811,7 +1234,7 @@
     <col min="12" max="12" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1875,7 +1298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1907,7 +1330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -1921,23 +1344,23 @@
       <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>25</v>
+      <c r="H4" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1963,15 +1386,15 @@
         <v>//生命</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1997,15 +1420,15 @@
         <v>//攻击</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2031,15 +1454,15 @@
         <v>//防御</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2059,15 +1482,15 @@
         <v>//物理攻击</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2087,15 +1510,15 @@
         <v>//物理防御</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2115,15 +1538,15 @@
         <v>//魔法攻击</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2143,15 +1566,15 @@
         <v>//魔法防御</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2171,15 +1594,15 @@
         <v>//无视防御</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2199,15 +1622,15 @@
         <v>//无视物理防御</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2227,15 +1650,15 @@
         <v>//无视魔法防御</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2255,15 +1678,15 @@
         <v>//最终伤害提升</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2283,15 +1706,15 @@
         <v>//最终伤害减免</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2311,15 +1734,15 @@
         <v>//最终伤害提升百分比</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2339,15 +1762,15 @@
         <v>//最终伤害减免减免</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2367,15 +1790,15 @@
         <v>//普攻伤害提升</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2395,15 +1818,15 @@
         <v>//普攻伤害减免</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2423,15 +1846,15 @@
         <v>//终极技能伤害提升</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2452,15 +1875,15 @@
       </c>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2486,15 +1909,15 @@
         <v>//暴击率</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
         <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2506,7 +1929,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2520,15 +1943,15 @@
         <v>//抗暴率</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2554,15 +1977,15 @@
         <v>//暴击伤害</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
         <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2582,15 +2005,15 @@
         <v>//格挡率</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2599,7 +2022,7 @@
         <v>-1000</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2613,15 +2036,15 @@
         <v>//穿透率</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
         <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2644,15 +2067,15 @@
         <v>//格挡效果</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
         <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2675,15 +2098,15 @@
         <v>//命中</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
         <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2709,15 +2132,15 @@
         <v>//闪避</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2737,15 +2160,15 @@
         <v>//治疗效果固定值</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
         <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2757,7 +2180,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2771,15 +2194,15 @@
         <v>//治疗效果</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
         <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2799,15 +2222,15 @@
         <v>//恢复效果固定值</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
         <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2819,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2833,15 +2256,15 @@
         <v>//恢复效果</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
         <v>90</v>
-      </c>
-      <c r="C35" t="s">
-        <v>91</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2856,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2870,15 +2293,15 @@
         <v>//吸血率</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
         <v>93</v>
-      </c>
-      <c r="C36" t="s">
-        <v>94</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2893,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2907,15 +2330,15 @@
         <v>//反伤率</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
         <v>96</v>
-      </c>
-      <c r="C37" t="s">
-        <v>97</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2938,15 +2361,15 @@
         <v>//伤害率</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
         <v>98</v>
-      </c>
-      <c r="C38" t="s">
-        <v>99</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2969,15 +2392,15 @@
         <v>//免伤率</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2997,15 +2420,15 @@
         <v>//个人回合行动前回怒</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3025,15 +2448,15 @@
         <v>//战斗波次获得怒气</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3053,15 +2476,15 @@
         <v>//受普攻攻击回怒</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3081,15 +2504,15 @@
         <v>//自己击杀敌方单体回怒</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:12">
+    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>39</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -3109,15 +2532,15 @@
         <v>//怪物怒气上限</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3140,15 +2563,15 @@
         <v>//先手</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
         <v>112</v>
-      </c>
-      <c r="C45" t="s">
-        <v>113</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3168,15 +2591,15 @@
         <v>//生命百分比（战斗）</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
         <v>114</v>
-      </c>
-      <c r="C46" t="s">
-        <v>115</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3196,15 +2619,15 @@
         <v>//攻击百分比（战斗）</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
         <v>116</v>
-      </c>
-      <c r="C47" t="s">
-        <v>117</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3224,15 +2647,15 @@
         <v>//防御百分比（战斗）</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
         <v>118</v>
-      </c>
-      <c r="C48" t="s">
-        <v>119</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3252,15 +2675,15 @@
         <v>//物理攻击力百分比</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
         <v>120</v>
-      </c>
-      <c r="C49" t="s">
-        <v>121</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3280,15 +2703,15 @@
         <v>//物理防御力百分比</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3308,15 +2731,15 @@
         <v>//魔法攻击力百分比</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
         <v>124</v>
-      </c>
-      <c r="C51" t="s">
-        <v>125</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3336,15 +2759,15 @@
         <v>//魔法防御力百分比</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" t="s">
-        <v>127</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3364,15 +2787,15 @@
         <v>//对位伤害提升</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>49</v>
       </c>
       <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
         <v>128</v>
-      </c>
-      <c r="C53" t="s">
-        <v>129</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3392,15 +2815,15 @@
         <v>//对位伤害减免</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>50</v>
       </c>
       <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
         <v>130</v>
-      </c>
-      <c r="C54" t="s">
-        <v>131</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3420,15 +2843,15 @@
         <v>//非对位伤害提升</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>51</v>
       </c>
       <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
         <v>132</v>
-      </c>
-      <c r="C55" t="s">
-        <v>133</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3448,15 +2871,15 @@
         <v>//非对位伤害减免</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3479,15 +2902,15 @@
         <v>//生命</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3510,15 +2933,15 @@
         <v>//攻击</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3541,15 +2964,15 @@
         <v>//防御</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="s">
         <v>137</v>
-      </c>
-      <c r="C59" t="s">
-        <v>138</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3561,232 +2984,232 @@
         <v>-1000000</v>
       </c>
       <c r="I59" t="s">
+        <v>138</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
         <v>139</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>140</v>
       </c>
-      <c r="L59" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>56</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60" s="10" t="s">
+      <c r="L60" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="L60" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>57</v>
       </c>
       <c r="B61" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" s="10" t="s">
+      <c r="L61" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="L61" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>58</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62" s="10" t="s">
+      <c r="L62" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="L62" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>59</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" s="10" t="s">
+      <c r="L63" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="L63" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>60</v>
       </c>
       <c r="B64" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" t="s">
         <v>158</v>
       </c>
-      <c r="C64" t="s">
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64" s="10" t="s">
+      <c r="L64" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="L64" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>61</v>
       </c>
       <c r="B65" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="L65" t="str">
         <f t="shared" ref="L65:L67" si="4">"//"&amp;C65</f>
         <v>//怪物怒气上限</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>62</v>
       </c>
       <c r="B66" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="4"/>
         <v>//怪物个人回合回怒</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" spans="1:12">
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>63</v>
       </c>
       <c r="B67" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="L67" t="str">
         <f t="shared" si="4"/>
         <v>//怪物初始怒气</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2001</v>
       </c>
       <c r="B68" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3801,15 +3224,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2002</v>
       </c>
       <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" t="s">
         <v>172</v>
-      </c>
-      <c r="C69" t="s">
-        <v>173</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3824,15 +3247,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2003</v>
       </c>
       <c r="B70" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" t="s">
         <v>174</v>
-      </c>
-      <c r="C70" t="s">
-        <v>175</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3847,16 +3270,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2004</v>
       </c>
       <c r="B71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" t="s">
         <v>176</v>
       </c>
-      <c r="C71" t="s">
-        <v>177</v>
-      </c>
       <c r="D71">
         <v>1</v>
       </c>
@@ -3867,16 +3290,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2005</v>
       </c>
       <c r="B72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
       </c>
-      <c r="C72" t="s">
-        <v>179</v>
-      </c>
       <c r="D72">
         <v>1</v>
       </c>
@@ -3887,16 +3310,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2006</v>
       </c>
       <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
         <v>180</v>
       </c>
-      <c r="C73" t="s">
-        <v>181</v>
-      </c>
       <c r="D73">
         <v>1</v>
       </c>
@@ -3907,16 +3330,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2007</v>
       </c>
       <c r="B74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" t="s">
         <v>182</v>
       </c>
-      <c r="C74" t="s">
-        <v>183</v>
-      </c>
       <c r="D74">
         <v>1</v>
       </c>
@@ -3927,15 +3350,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>3001</v>
       </c>
       <c r="B75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
         <v>184</v>
-      </c>
-      <c r="C75" t="s">
-        <v>185</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3950,15 +3373,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>3002</v>
       </c>
       <c r="B76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" t="s">
         <v>186</v>
-      </c>
-      <c r="C76" t="s">
-        <v>187</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3973,15 +3396,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>3003</v>
       </c>
       <c r="B77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" t="s">
         <v>188</v>
-      </c>
-      <c r="C77" t="s">
-        <v>189</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3996,16 +3419,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>3004</v>
       </c>
       <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
         <v>190</v>
       </c>
-      <c r="C78" t="s">
-        <v>191</v>
-      </c>
       <c r="D78">
         <v>1</v>
       </c>
@@ -4016,16 +3439,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>3005</v>
       </c>
       <c r="B79" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" t="s">
         <v>192</v>
       </c>
-      <c r="C79" t="s">
-        <v>193</v>
-      </c>
       <c r="D79">
         <v>1</v>
       </c>
@@ -4036,16 +3459,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>3006</v>
       </c>
       <c r="B80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" t="s">
         <v>194</v>
       </c>
-      <c r="C80" t="s">
-        <v>195</v>
-      </c>
       <c r="D80">
         <v>1</v>
       </c>
@@ -4056,16 +3479,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>3007</v>
       </c>
       <c r="B81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" t="s">
         <v>196</v>
       </c>
-      <c r="C81" t="s">
-        <v>197</v>
-      </c>
       <c r="D81">
         <v>1</v>
       </c>
@@ -4077,8 +3500,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C6C0FB-FB53-4244-93E1-06AFA9E84945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24630" yWindow="780" windowWidth="15150" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Attr|属性对照表" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -108,6 +89,9 @@
   </si>
   <si>
     <t>IN:[0;1;2;3]</t>
+  </si>
+  <si>
+    <t>ID_OR_NULL:Attr</t>
   </si>
   <si>
     <t>hpMax</t>
@@ -721,16 +705,18 @@
   <si>
     <t>装备魔法防御力百分比</t>
   </si>
-  <si>
-    <t>ID:Attr$Null</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,26 +747,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,7 +903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14981536301767021"/>
+        <fgColor theme="0" tint="-0.149845881527146"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,13 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39957884456923126"/>
+        <fgColor theme="3" tint="0.399609363078707"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,8 +937,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -853,19 +1147,261 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,22 +1411,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
@@ -905,23 +1441,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1208,19 +1785,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -1234,7 +1811,7 @@
     <col min="12" max="12" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1298,7 +1875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -1344,23 +1921,23 @@
       <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>197</v>
+      <c r="H4" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1386,15 +1963,15 @@
         <v>//生命</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1420,15 +1997,15 @@
         <v>//攻击</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1454,15 +2031,15 @@
         <v>//防御</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1482,15 +2059,15 @@
         <v>//物理攻击</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1510,15 +2087,15 @@
         <v>//物理防御</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1538,15 +2115,15 @@
         <v>//魔法攻击</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1566,15 +2143,15 @@
         <v>//魔法防御</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1594,15 +2171,15 @@
         <v>//无视防御</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1622,15 +2199,15 @@
         <v>//无视物理防御</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1650,15 +2227,15 @@
         <v>//无视魔法防御</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1678,15 +2255,15 @@
         <v>//最终伤害提升</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1706,15 +2283,15 @@
         <v>//最终伤害减免</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1734,15 +2311,15 @@
         <v>//最终伤害提升百分比</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1762,15 +2339,15 @@
         <v>//最终伤害减免减免</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1790,15 +2367,15 @@
         <v>//普攻伤害提升</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1818,15 +2395,15 @@
         <v>//普攻伤害减免</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1846,15 +2423,15 @@
         <v>//终极技能伤害提升</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1875,15 +2452,15 @@
       </c>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1909,15 +2486,15 @@
         <v>//暴击率</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1929,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1943,15 +2520,15 @@
         <v>//抗暴率</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1977,15 +2554,15 @@
         <v>//暴击伤害</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2005,15 +2582,15 @@
         <v>//格挡率</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2022,7 +2599,7 @@
         <v>-1000</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2036,15 +2613,15 @@
         <v>//穿透率</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2067,15 +2644,15 @@
         <v>//格挡效果</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2098,15 +2675,15 @@
         <v>//命中</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2132,15 +2709,15 @@
         <v>//闪避</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2160,15 +2737,15 @@
         <v>//治疗效果固定值</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2180,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2194,15 +2771,15 @@
         <v>//治疗效果</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2222,15 +2799,15 @@
         <v>//恢复效果固定值</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2242,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2256,15 +2833,15 @@
         <v>//恢复效果</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2279,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2293,15 +2870,15 @@
         <v>//吸血率</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2316,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2330,15 +2907,15 @@
         <v>//反伤率</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2361,15 +2938,15 @@
         <v>//伤害率</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2392,15 +2969,15 @@
         <v>//免伤率</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2420,15 +2997,15 @@
         <v>//个人回合行动前回怒</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2448,15 +3025,15 @@
         <v>//战斗波次获得怒气</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2476,15 +3053,15 @@
         <v>//受普攻攻击回怒</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2504,15 +3081,15 @@
         <v>//自己击杀敌方单体回怒</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" s="2" customFormat="1" spans="1:12">
       <c r="A43" s="2">
         <v>39</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -2532,15 +3109,15 @@
         <v>//怪物怒气上限</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2563,15 +3140,15 @@
         <v>//先手</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2591,15 +3168,15 @@
         <v>//生命百分比（战斗）</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2619,15 +3196,15 @@
         <v>//攻击百分比（战斗）</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2647,15 +3224,15 @@
         <v>//防御百分比（战斗）</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2675,15 +3252,15 @@
         <v>//物理攻击力百分比</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2703,15 +3280,15 @@
         <v>//物理防御力百分比</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2731,15 +3308,15 @@
         <v>//魔法攻击力百分比</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2759,15 +3336,15 @@
         <v>//魔法防御力百分比</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2787,15 +3364,15 @@
         <v>//对位伤害提升</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2815,15 +3392,15 @@
         <v>//对位伤害减免</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2843,15 +3420,15 @@
         <v>//非对位伤害提升</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2871,15 +3448,15 @@
         <v>//非对位伤害减免</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2902,15 +3479,15 @@
         <v>//生命</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2933,15 +3510,15 @@
         <v>//攻击</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2964,15 +3541,15 @@
         <v>//防御</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2984,27 +3561,27 @@
         <v>-1000000</v>
       </c>
       <c r="I59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L59" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>56</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3016,21 +3593,21 @@
         <v>0</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>57</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -3042,21 +3619,21 @@
         <v>0</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>58</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3068,21 +3645,21 @@
         <v>0</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>59</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -3094,41 +3671,41 @@
         <v>0</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>60</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>61</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3140,22 +3717,22 @@
         <v>1</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L65" t="str">
         <f t="shared" ref="L65:L67" si="4">"//"&amp;C65</f>
         <v>//怪物怒气上限</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>62</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3167,22 +3744,22 @@
         <v>1</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="4"/>
         <v>//怪物个人回合回怒</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" ht="15" customHeight="1" spans="1:12">
       <c r="A67">
         <v>63</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3194,22 +3771,22 @@
         <v>1</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L67" t="str">
         <f t="shared" si="4"/>
         <v>//怪物初始怒气</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>2001</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3224,15 +3801,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>2002</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3247,15 +3824,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>2003</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3270,15 +3847,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>2004</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3290,15 +3867,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>2005</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3310,15 +3887,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>2006</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3330,15 +3907,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>2007</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3350,15 +3927,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>3001</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3373,15 +3950,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>3002</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3396,15 +3973,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>3003</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3419,15 +3996,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>3004</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3439,15 +4016,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>3005</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3459,15 +4036,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>3006</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3479,15 +4056,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>3007</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3500,8 +4077,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/004_属性对照表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C6C0FB-FB53-4244-93E1-06AFA9E84945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A7311E-197A-4730-B1BD-EEE2D5E3E92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24630" yWindow="780" windowWidth="15150" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attr|属性对照表" sheetId="3" r:id="rId1"/>
@@ -722,7 +722,7 @@
     <t>装备魔法防御力百分比</t>
   </si>
   <si>
-    <t>ID:Attr$Null</t>
+    <t>ID:Attr|Null</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
